--- a/data/trans_orig/Q5402-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6651</v>
+        <v>6855</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0318692435844135</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1112584079294481</v>
+        <v>0.1146686801438267</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6726</v>
+        <v>6764</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02128973052691137</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07516109206059399</v>
+        <v>0.07558365492973355</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>3466</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10563</v>
+        <v>9283</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05797039205296343</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01292287984161174</v>
+        <v>0.01295503295273738</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1766923480435743</v>
+        <v>0.1552774007920744</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5336</v>
+        <v>5362</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0578900742304418</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1795997960963143</v>
+        <v>0.1804814087252935</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -849,19 +849,19 @@
         <v>5186</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1751</v>
+        <v>1714</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11530</v>
+        <v>11638</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05794372924718121</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01956352364173014</v>
+        <v>0.01915620557551708</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1288389937422716</v>
+        <v>0.1300445817660043</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>54413</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47930</v>
+        <v>47793</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57967</v>
+        <v>58048</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.910160364362623</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8017164420699499</v>
+        <v>0.7994273785758965</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9696095764139689</v>
+        <v>0.9709576701625895</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -899,7 +899,7 @@
         <v>27989</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24373</v>
+        <v>24347</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>29709</v>
@@ -908,7 +908,7 @@
         <v>0.9421099257695582</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8204002039036857</v>
+        <v>0.8195185912747061</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -920,19 +920,19 @@
         <v>82402</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75935</v>
+        <v>74719</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>86777</v>
+        <v>86058</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9207665402259074</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8484967275338118</v>
+        <v>0.8349161988847613</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9696476880130958</v>
+        <v>0.9616144130923006</v>
       </c>
     </row>
     <row r="7">
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6159</v>
+        <v>5656</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03511095210124165</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1211643886337642</v>
+        <v>0.1112666935521865</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4821</v>
+        <v>4720</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07353760696841238</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3053994652454792</v>
+        <v>0.2990297336536896</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1066,19 +1066,19 @@
         <v>2946</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>804</v>
+        <v>829</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7961</v>
+        <v>7846</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0442168013501133</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01206777258018247</v>
+        <v>0.01244872140574919</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.119509317552203</v>
+        <v>0.1177816813790117</v>
       </c>
     </row>
     <row r="9">
@@ -1095,19 +1095,19 @@
         <v>3441</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>852</v>
+        <v>825</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10087</v>
+        <v>9413</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06768874398504611</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01675617650126767</v>
+        <v>0.01623449820649745</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1984533734565154</v>
+        <v>0.1851902288863463</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6225</v>
+        <v>6442</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1321901366572513</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3943601860961093</v>
+        <v>0.4080948671401808</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -1137,19 +1137,19 @@
         <v>5527</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1920</v>
+        <v>1907</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11754</v>
+        <v>11814</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08297344571215794</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02882343612616047</v>
+        <v>0.02862380450409905</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1764405284451275</v>
+        <v>0.17734173975462</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>45605</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38988</v>
+        <v>39985</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49077</v>
+        <v>49058</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8972003039137122</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7670343695818775</v>
+        <v>0.7866381890326271</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.965514959870172</v>
+        <v>0.9651290592115307</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1187,19 +1187,19 @@
         <v>12538</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8059</v>
+        <v>8154</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14836</v>
+        <v>14881</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7942722563743363</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5105358414151757</v>
+        <v>0.5165193102763286</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9398103302352717</v>
+        <v>0.9426424986058972</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1208,19 +1208,19 @@
         <v>58143</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51364</v>
+        <v>51423</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62346</v>
+        <v>62750</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8728097529377288</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7710386352930862</v>
+        <v>0.7719278454607666</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9358985736194171</v>
+        <v>0.9419694753070736</v>
       </c>
     </row>
     <row r="11">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6306</v>
+        <v>6457</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0246522216078816</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08788810119339185</v>
+        <v>0.0899947518127604</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7551</v>
+        <v>6586</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09349739396229652</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3110721667900954</v>
+        <v>0.2713111950274529</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1354,19 +1354,19 @@
         <v>4039</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>920</v>
+        <v>1138</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9260</v>
+        <v>9448</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04205560432289922</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009577636493028679</v>
+        <v>0.01185185445192869</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09642517290397404</v>
+        <v>0.09838825033761557</v>
       </c>
     </row>
     <row r="13">
@@ -1383,19 +1383,19 @@
         <v>8901</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4359</v>
+        <v>4639</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14929</v>
+        <v>15179</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1240486443330406</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06075537966220713</v>
+        <v>0.06465620347291012</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2080556045466063</v>
+        <v>0.2115456839089395</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5241</v>
+        <v>5186</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04267926274394805</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2158938440050607</v>
+        <v>0.2136164788849115</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1425,19 +1425,19 @@
         <v>9937</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5375</v>
+        <v>5135</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17086</v>
+        <v>16755</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1034792646561448</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05597666846045687</v>
+        <v>0.05347686065945147</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1779269167387691</v>
+        <v>0.1744801095127123</v>
       </c>
     </row>
     <row r="14">
@@ -1454,19 +1454,19 @@
         <v>61084</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54569</v>
+        <v>54617</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65930</v>
+        <v>65623</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8512991340590779</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7604960915647102</v>
+        <v>0.7611681819365085</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9188299340888206</v>
+        <v>0.9145556511640187</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -1475,19 +1475,19 @@
         <v>20969</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16364</v>
+        <v>15629</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23232</v>
+        <v>23224</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8638233432937554</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6741172698146125</v>
+        <v>0.6438131282822932</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9570501797996271</v>
+        <v>0.9566915124941279</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>86</v>
@@ -1496,19 +1496,19 @@
         <v>82054</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>73745</v>
+        <v>75043</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>87886</v>
+        <v>87752</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8544651310209559</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.767934225144139</v>
+        <v>0.7814551456742324</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9151891839971442</v>
+        <v>0.9138015615600428</v>
       </c>
     </row>
     <row r="15">
@@ -1600,19 +1600,19 @@
         <v>15058</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8762</v>
+        <v>9092</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23891</v>
+        <v>23327</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05789978043981454</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03369021495482286</v>
+        <v>0.03496082108725113</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09186199655257594</v>
+        <v>0.08969344257080582</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5181</v>
+        <v>5668</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0135372489033814</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06041862058815313</v>
+        <v>0.06609362044687642</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1642,19 +1642,19 @@
         <v>16219</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10109</v>
+        <v>10100</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25021</v>
+        <v>25726</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0468994495193055</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02923260216311795</v>
+        <v>0.02920592849596202</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07235075318417755</v>
+        <v>0.07439171743225056</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>26736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19069</v>
+        <v>18416</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37240</v>
+        <v>37252</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1028008507648898</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07332084531822822</v>
+        <v>0.07081026506892844</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1431927667533923</v>
+        <v>0.1432384960132729</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1692,19 +1692,19 @@
         <v>6356</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2892</v>
+        <v>2931</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12382</v>
+        <v>12051</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07411599093700363</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03372838311397019</v>
+        <v>0.03418316090052066</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1443924494247395</v>
+        <v>0.1405376291754057</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -1713,19 +1713,19 @@
         <v>33091</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>23934</v>
+        <v>23242</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45545</v>
+        <v>43554</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09568802515312277</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06920963661856361</v>
+        <v>0.06720865094486388</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1317010059000138</v>
+        <v>0.1259425729060462</v>
       </c>
     </row>
     <row r="18">
@@ -1742,19 +1742,19 @@
         <v>218278</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>206348</v>
+        <v>206392</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>228537</v>
+        <v>228141</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8392993687952957</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7934265248032353</v>
+        <v>0.7935941664187651</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8787467576204278</v>
+        <v>0.8772229751543464</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>81</v>
@@ -1763,19 +1763,19 @@
         <v>78236</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>71716</v>
+        <v>71803</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>82389</v>
+        <v>82398</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.912346760159615</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8363163297486206</v>
+        <v>0.8373332252057235</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9607791688708205</v>
+        <v>0.9608826872234051</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>313</v>
@@ -1784,19 +1784,19 @@
         <v>296514</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>283506</v>
+        <v>283693</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>308068</v>
+        <v>308766</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8574125253275717</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8197995628392021</v>
+        <v>0.8203387431334578</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8908232463404018</v>
+        <v>0.8928419516049935</v>
       </c>
     </row>
     <row r="19">
@@ -1888,19 +1888,19 @@
         <v>5643</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2641</v>
+        <v>2644</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11919</v>
+        <v>11266</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1017373067293459</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04761161981685945</v>
+        <v>0.04767801894915758</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2148963181961398</v>
+        <v>0.2031198739255697</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -1909,19 +1909,19 @@
         <v>9324</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4489</v>
+        <v>4537</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16169</v>
+        <v>16732</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09687749936017584</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04664184234703267</v>
+        <v>0.04713809928354332</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.167988176628397</v>
+        <v>0.1738337857244721</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -1930,19 +1930,19 @@
         <v>14967</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8325</v>
+        <v>7981</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24303</v>
+        <v>23135</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09865418911331847</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05487202134299942</v>
+        <v>0.05260689220215432</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1601896641706162</v>
+        <v>0.1524897902418776</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>3659</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>964</v>
+        <v>862</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8387</v>
+        <v>9309</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0659769972528209</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01737835327160419</v>
+        <v>0.01554728589844232</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1512077636416447</v>
+        <v>0.1678445544993155</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -1980,19 +1980,19 @@
         <v>10825</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5432</v>
+        <v>5646</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18390</v>
+        <v>18284</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1124663094260204</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05643286864172276</v>
+        <v>0.05865474006380157</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1910662898382425</v>
+        <v>0.1899676063250036</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>14</v>
@@ -2001,19 +2001,19 @@
         <v>14484</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8705</v>
+        <v>8530</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>23054</v>
+        <v>22851</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0954703508839685</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05737745105995135</v>
+        <v>0.05622446592665224</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1519536757544607</v>
+        <v>0.1506149994594219</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>46163</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39633</v>
+        <v>40408</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50572</v>
+        <v>50852</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8322856960178332</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7145632824751033</v>
+        <v>0.728525267904591</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.911791046382841</v>
+        <v>0.9168387923707679</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>73</v>
@@ -2051,19 +2051,19 @@
         <v>76101</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>67019</v>
+        <v>66739</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>83334</v>
+        <v>83340</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7906561912138038</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6963048070027194</v>
+        <v>0.6933971034437031</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8658106737594403</v>
+        <v>0.8658660453753774</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>122</v>
@@ -2072,19 +2072,19 @@
         <v>122263</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>111992</v>
+        <v>112940</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>131450</v>
+        <v>131568</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.805875460002713</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7381731182151238</v>
+        <v>0.7444190215857712</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8664265229354717</v>
+        <v>0.8672019373235932</v>
       </c>
     </row>
     <row r="23">
@@ -2189,19 +2189,19 @@
         <v>23053</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14003</v>
+        <v>13947</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32812</v>
+        <v>33275</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05423349788113963</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03294171853953727</v>
+        <v>0.03281150668464679</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07719154569137725</v>
+        <v>0.07828077399357659</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -2210,19 +2210,19 @@
         <v>23053</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14215</v>
+        <v>15023</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>33905</v>
+        <v>33803</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05377239795786382</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03315792151352343</v>
+        <v>0.03504308536282767</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07908459928751338</v>
+        <v>0.07884770394543296</v>
       </c>
     </row>
     <row r="25">
@@ -2260,19 +2260,19 @@
         <v>26737</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17524</v>
+        <v>17600</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38364</v>
+        <v>39410</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06289942445468438</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04122673012823395</v>
+        <v>0.04140539831468212</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09025332777223415</v>
+        <v>0.09271513847939193</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>25</v>
@@ -2281,19 +2281,19 @@
         <v>27651</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18214</v>
+        <v>17744</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39221</v>
+        <v>40124</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06449747468628042</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04248398308614285</v>
+        <v>0.04138927869550738</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09148509307093425</v>
+        <v>0.09359171228360723</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>375280</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>360018</v>
+        <v>359871</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>387762</v>
+        <v>387561</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.882867077664176</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8469612099586934</v>
+        <v>0.8466164232403575</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9122311417166626</v>
+        <v>0.9117574716448261</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>370</v>
@@ -2352,19 +2352,19 @@
         <v>378011</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>363161</v>
+        <v>362876</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>390595</v>
+        <v>390650</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8817301273558558</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8470910700763874</v>
+        <v>0.8464272243581499</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9110828889280659</v>
+        <v>0.9112114187503734</v>
       </c>
     </row>
     <row r="27">
@@ -2456,19 +2456,19 @@
         <v>26160</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>16770</v>
+        <v>17700</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>37509</v>
+        <v>36334</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05215799226951837</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03343662985024915</v>
+        <v>0.03529007229588257</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07478651493483809</v>
+        <v>0.07244366013863178</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>34</v>
@@ -2477,19 +2477,19 @@
         <v>36969</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>26009</v>
+        <v>27254</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>51700</v>
+        <v>51046</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05461966456545812</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0384275121515285</v>
+        <v>0.04026693873768514</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07638450776187809</v>
+        <v>0.07541811319227922</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>62</v>
@@ -2498,19 +2498,19 @@
         <v>63129</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>49746</v>
+        <v>46502</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>80881</v>
+        <v>77921</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0535719206695447</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.042215465256379</v>
+        <v>0.03946234954456915</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06863659422027779</v>
+        <v>0.06612442446318692</v>
       </c>
     </row>
     <row r="29">
@@ -2527,19 +2527,19 @@
         <v>47117</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>35549</v>
+        <v>35993</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>61683</v>
+        <v>62425</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09394219989323235</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07087793151505255</v>
+        <v>0.07176239577991701</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1229851906272086</v>
+        <v>0.1244642935890925</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>45</v>
@@ -2548,19 +2548,19 @@
         <v>48760</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>36494</v>
+        <v>35756</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>62934</v>
+        <v>62581</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07204010187718481</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05391732431456404</v>
+        <v>0.05282782131600264</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09298183951982289</v>
+        <v>0.09246062615609922</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>95</v>
@@ -2569,19 +2569,19 @@
         <v>95877</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>80071</v>
+        <v>78430</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>115368</v>
+        <v>116435</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0813621345221721</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06794966951197087</v>
+        <v>0.06655648055210561</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0979028240914973</v>
+        <v>0.09880857161642317</v>
       </c>
     </row>
     <row r="30">
@@ -2598,19 +2598,19 @@
         <v>428274</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>411781</v>
+        <v>412509</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>442328</v>
+        <v>442116</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8538998078372493</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8210148945115892</v>
+        <v>0.8224675985586375</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8819199121716639</v>
+        <v>0.8814980752026074</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>582</v>
@@ -2619,19 +2619,19 @@
         <v>591113</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>570940</v>
+        <v>572975</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>606831</v>
+        <v>608287</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8733402335573571</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8435352223592212</v>
+        <v>0.8465423608250856</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8965619276838305</v>
+        <v>0.8987137934524398</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1026</v>
@@ -2640,19 +2640,19 @@
         <v>1019388</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>993910</v>
+        <v>993902</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1040392</v>
+        <v>1041227</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8650659448082832</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8434453486443486</v>
+        <v>0.8434382723475367</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8828908690496214</v>
+        <v>0.8835990177259637</v>
       </c>
     </row>
     <row r="31">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5551</v>
+        <v>5355</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02378456403225312</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1263865410957944</v>
+        <v>0.1219258990541173</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5819</v>
+        <v>5530</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0434799700497733</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2301038571679725</v>
+        <v>0.2186913772487411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7613</v>
+        <v>7494</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03098152699325197</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1100018579113087</v>
+        <v>0.1082896679090921</v>
       </c>
     </row>
     <row r="5">
@@ -3057,19 +3057,19 @@
         <v>5223</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1847</v>
+        <v>1971</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11931</v>
+        <v>12153</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1189206618566576</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04205511886401418</v>
+        <v>0.0448845852248531</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2716756098938223</v>
+        <v>0.2767260659775109</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5286</v>
+        <v>5450</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04162510573438099</v>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2090224833033834</v>
+        <v>0.2154903593768627</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -3099,19 +3099,19 @@
         <v>6275</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2033</v>
+        <v>2089</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13069</v>
+        <v>14108</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09067583897933393</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02937574101313353</v>
+        <v>0.03018120997975384</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1888428403812405</v>
+        <v>0.2038519931568331</v>
       </c>
     </row>
     <row r="6">
@@ -3128,19 +3128,19 @@
         <v>37651</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30636</v>
+        <v>30326</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>41808</v>
+        <v>41715</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8572947741110892</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6975775056121125</v>
+        <v>0.6905212578417762</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9519631785886371</v>
+        <v>0.949846024911459</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -3149,7 +3149,7 @@
         <v>23137</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18362</v>
+        <v>18538</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>25289</v>
@@ -3158,7 +3158,7 @@
         <v>0.9148949242158457</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.726084443509182</v>
+        <v>0.7330407777135534</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -3170,19 +3170,19 @@
         <v>60787</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>53400</v>
+        <v>52598</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>66032</v>
+        <v>65296</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8783426340274141</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7716006988055606</v>
+        <v>0.760006150911134</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9541266141129059</v>
+        <v>0.9434916480955433</v>
       </c>
     </row>
     <row r="7">
@@ -3274,19 +3274,19 @@
         <v>5395</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1120</v>
+        <v>2014</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13363</v>
+        <v>13747</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08899026853122617</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01847616130302505</v>
+        <v>0.03321656535499896</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2204096021053298</v>
+        <v>0.2267352946480196</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -3295,19 +3295,19 @@
         <v>3322</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1029</v>
+        <v>1006</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7998</v>
+        <v>8018</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.175742536619114</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05443588717785641</v>
+        <v>0.05321299034797921</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.423140986878874</v>
+        <v>0.42417741521703</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -3316,19 +3316,19 @@
         <v>8717</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3440</v>
+        <v>4175</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>16681</v>
+        <v>18169</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1096079908467314</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04325654505974524</v>
+        <v>0.05249671665440402</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2097382886165599</v>
+        <v>0.2284534996688606</v>
       </c>
     </row>
     <row r="9">
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6547</v>
+        <v>6748</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03451136870874683</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.107978403085151</v>
+        <v>0.1113028683476018</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5886</v>
+        <v>6031</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09962575747851733</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3113986097145056</v>
+        <v>0.3190485857059214</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -3387,19 +3387,19 @@
         <v>3975</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1071</v>
+        <v>1018</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10418</v>
+        <v>9536</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04998658815821294</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01346275292770313</v>
+        <v>0.01280477695641051</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1309884588743712</v>
+        <v>0.1199037213310791</v>
       </c>
     </row>
     <row r="10">
@@ -3416,19 +3416,19 @@
         <v>53142</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45784</v>
+        <v>44414</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57643</v>
+        <v>57503</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.876498362760027</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7551324197003539</v>
+        <v>0.7325449667312798</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9507414712037037</v>
+        <v>0.9484191752064995</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -3437,19 +3437,19 @@
         <v>13697</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9242</v>
+        <v>9102</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17017</v>
+        <v>16969</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7246317059023687</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4889342265155115</v>
+        <v>0.4815259054523991</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9002699860515887</v>
+        <v>0.8977593581692324</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -3458,19 +3458,19 @@
         <v>66838</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58231</v>
+        <v>58229</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72652</v>
+        <v>73035</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8404054209950557</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7321828679908278</v>
+        <v>0.7321585650100686</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9135055611139447</v>
+        <v>0.9183220793499954</v>
       </c>
     </row>
     <row r="11">
@@ -3562,19 +3562,19 @@
         <v>5047</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1901</v>
+        <v>1948</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11176</v>
+        <v>11365</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04253574878177705</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01601735507343403</v>
+        <v>0.01641990924912263</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09418786497746438</v>
+        <v>0.09578640780202283</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -3583,19 +3583,19 @@
         <v>3087</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7293</v>
+        <v>8353</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0565288780308599</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01795595032715717</v>
+        <v>0.01828992295495521</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1335299237400284</v>
+        <v>0.1529466595876574</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -3604,19 +3604,19 @@
         <v>8134</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4025</v>
+        <v>3949</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15823</v>
+        <v>14675</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04694641959918343</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02323075035263403</v>
+        <v>0.02279415421018324</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09132083444228138</v>
+        <v>0.08469641513707497</v>
       </c>
     </row>
     <row r="13">
@@ -3633,19 +3633,19 @@
         <v>17095</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9899</v>
+        <v>9621</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27601</v>
+        <v>27761</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1440774118829973</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08343146170409384</v>
+        <v>0.08108109712818042</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2326203323164018</v>
+        <v>0.2339715097798579</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -3654,19 +3654,19 @@
         <v>5358</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2012</v>
+        <v>2091</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10887</v>
+        <v>10819</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09811095825965385</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0368335778153517</v>
+        <v>0.03828129172337784</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1993363698436518</v>
+        <v>0.1980898375761464</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -3675,19 +3675,19 @@
         <v>22454</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13680</v>
+        <v>14112</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34485</v>
+        <v>33504</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1295886658729201</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07895208513882834</v>
+        <v>0.08144767359302442</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1990287115897246</v>
+        <v>0.1933645395424234</v>
       </c>
     </row>
     <row r="14">
@@ -3704,19 +3704,19 @@
         <v>96511</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>86526</v>
+        <v>85641</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104517</v>
+        <v>104981</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8133868393352256</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7292354315672481</v>
+        <v>0.7217739569938616</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.880861268312776</v>
+        <v>0.8847703052976433</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -3725,19 +3725,19 @@
         <v>46169</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>40114</v>
+        <v>39421</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51253</v>
+        <v>50509</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8453601637094863</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7344902517324181</v>
+        <v>0.7217918211204234</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9384377552679739</v>
+        <v>0.9248235916038846</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>127</v>
@@ -3746,19 +3746,19 @@
         <v>142680</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>130023</v>
+        <v>129851</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>152496</v>
+        <v>152523</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8234649145278965</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7504176708221036</v>
+        <v>0.7494236768075401</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8801183704360379</v>
+        <v>0.8802696138258944</v>
       </c>
     </row>
     <row r="15">
@@ -3850,19 +3850,19 @@
         <v>30826</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21653</v>
+        <v>21095</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43880</v>
+        <v>42321</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1330139241145821</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0934322502336318</v>
+        <v>0.09102538286746964</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1893386996336781</v>
+        <v>0.1826132132212505</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5581</v>
+        <v>5514</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0185221270513865</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09287581170620135</v>
+        <v>0.09175834259025982</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -3892,19 +3892,19 @@
         <v>31939</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20792</v>
+        <v>21382</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44754</v>
+        <v>43487</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1094386100692598</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07124388352287626</v>
+        <v>0.07326503222032912</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.153347164956442</v>
+        <v>0.1490064578505583</v>
       </c>
     </row>
     <row r="17">
@@ -3921,19 +3921,19 @@
         <v>31609</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21756</v>
+        <v>20543</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44093</v>
+        <v>44651</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1363889097593865</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0938769842665637</v>
+        <v>0.08864043555698616</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1902575833905737</v>
+        <v>0.1926644567405504</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -3942,19 +3942,19 @@
         <v>11825</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6568</v>
+        <v>6366</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18615</v>
+        <v>18375</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.196768677782074</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1092960025139983</v>
+        <v>0.1059405193257493</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3097640542714459</v>
+        <v>0.3057587335719948</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>39</v>
@@ -3963,19 +3963,19 @@
         <v>43433</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32191</v>
+        <v>30186</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>57576</v>
+        <v>56645</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1488218702826007</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1103015278396141</v>
+        <v>0.1034312866064641</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1972818367705582</v>
+        <v>0.1940896969504152</v>
       </c>
     </row>
     <row r="18">
@@ -3992,19 +3992,19 @@
         <v>169318</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>153358</v>
+        <v>153429</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>183156</v>
+        <v>182661</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7305971661260314</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6617292147407327</v>
+        <v>0.6620386912624001</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7903081430828826</v>
+        <v>0.7881693919077947</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>45</v>
@@ -4013,19 +4013,19 @@
         <v>47157</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>40378</v>
+        <v>40649</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>52744</v>
+        <v>52785</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7847091951665395</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6718957868733324</v>
+        <v>0.6764112022869332</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8776851185470649</v>
+        <v>0.8783548093584448</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>205</v>
@@ -4034,19 +4034,19 @@
         <v>216475</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>199718</v>
+        <v>200361</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>231801</v>
+        <v>232935</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7417395196481394</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6843205239413079</v>
+        <v>0.6865248050187877</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7942528064859409</v>
+        <v>0.7981372604775601</v>
       </c>
     </row>
     <row r="19">
@@ -4138,19 +4138,19 @@
         <v>12635</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7171</v>
+        <v>7211</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20276</v>
+        <v>20215</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1230322504621517</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06983168199592099</v>
+        <v>0.07021870360203115</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1974394599010548</v>
+        <v>0.1968462329257106</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -4159,19 +4159,19 @@
         <v>27986</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18616</v>
+        <v>18396</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38825</v>
+        <v>38836</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1485433119876225</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09881316061683139</v>
+        <v>0.09764278056277886</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2060749080503591</v>
+        <v>0.2061370672662562</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>37</v>
@@ -4180,19 +4180,19 @@
         <v>40620</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>29395</v>
+        <v>28964</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>54054</v>
+        <v>54503</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1395432687012425</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1009794683893844</v>
+        <v>0.09949967135708183</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1856926766430667</v>
+        <v>0.1872330990430064</v>
       </c>
     </row>
     <row r="21">
@@ -4209,19 +4209,19 @@
         <v>9721</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4429</v>
+        <v>4339</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17164</v>
+        <v>17495</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09465776106217123</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04312911535246156</v>
+        <v>0.04224886133396766</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.167135300337486</v>
+        <v>0.1703523339424327</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -4230,19 +4230,19 @@
         <v>22334</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13963</v>
+        <v>14049</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31984</v>
+        <v>32695</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1185467806322689</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07411612882884956</v>
+        <v>0.07456963545089139</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1697654245367482</v>
+        <v>0.1735399795771436</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>30</v>
@@ -4251,19 +4251,19 @@
         <v>32055</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>22351</v>
+        <v>21532</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>43758</v>
+        <v>43180</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1101189772660548</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07678163306964754</v>
+        <v>0.07397010869728814</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1503231404177317</v>
+        <v>0.1483353125399589</v>
       </c>
     </row>
     <row r="22">
@@ -4280,19 +4280,19 @@
         <v>80340</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>71704</v>
+        <v>71477</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88566</v>
+        <v>88756</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.782309988475677</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6982132029136136</v>
+        <v>0.6960070794014168</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.862404858833371</v>
+        <v>0.8642570724527627</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>131</v>
@@ -4301,19 +4301,19 @@
         <v>138080</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>125217</v>
+        <v>124479</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>150120</v>
+        <v>150291</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7329099073801086</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6646347930195629</v>
+        <v>0.6607187933841268</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7968131881666668</v>
+        <v>0.7977240635372806</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>206</v>
@@ -4322,19 +4322,19 @@
         <v>218420</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>201889</v>
+        <v>202300</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>232109</v>
+        <v>234011</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7503377540327028</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6935466755743559</v>
+        <v>0.6949610318447283</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.797362008255702</v>
+        <v>0.8038963681345236</v>
       </c>
     </row>
     <row r="23">
@@ -4439,19 +4439,19 @@
         <v>38752</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>27407</v>
+        <v>28149</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>52794</v>
+        <v>52013</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09817960418209754</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06943577540714853</v>
+        <v>0.0713164437211284</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1337568141372049</v>
+        <v>0.1317781792876777</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>35</v>
@@ -4460,19 +4460,19 @@
         <v>38752</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>28595</v>
+        <v>28095</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>53606</v>
+        <v>51496</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09768765070473293</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07208379190894798</v>
+        <v>0.07082392982650754</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1351323929953691</v>
+        <v>0.1298125020122548</v>
       </c>
     </row>
     <row r="25">
@@ -4502,19 +4502,19 @@
         <v>32770</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22654</v>
+        <v>22429</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45239</v>
+        <v>46356</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08302398571763894</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05739430614870545</v>
+        <v>0.05682407330522117</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1146150583323479</v>
+        <v>0.117444732166261</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -4523,19 +4523,19 @@
         <v>32770</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22479</v>
+        <v>22621</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45678</v>
+        <v>45511</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08260797325946376</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05666700181210284</v>
+        <v>0.05702293297902234</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1151467983207085</v>
+        <v>0.1147271607437279</v>
       </c>
     </row>
     <row r="26">
@@ -4565,19 +4565,19 @@
         <v>323182</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>306818</v>
+        <v>307201</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>338918</v>
+        <v>337974</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8187964101002635</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7773376294312101</v>
+        <v>0.7783066796271452</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.858663783657076</v>
+        <v>0.856272534769005</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>305</v>
@@ -4586,19 +4586,19 @@
         <v>325170</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>307883</v>
+        <v>307405</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>338764</v>
+        <v>339915</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8197043760358034</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7761266097755689</v>
+        <v>0.7749211582421858</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8539717694038361</v>
+        <v>0.8568747791831312</v>
       </c>
     </row>
     <row r="27">
@@ -4690,19 +4690,19 @@
         <v>54948</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>42037</v>
+        <v>41838</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>70878</v>
+        <v>71179</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09818555045090073</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07511403715418052</v>
+        <v>0.07475844284161984</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1266507057156983</v>
+        <v>0.1271872972847241</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>68</v>
@@ -4711,19 +4711,19 @@
         <v>75359</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>59087</v>
+        <v>58531</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>97209</v>
+        <v>92173</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1015616925466123</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07963148484652115</v>
+        <v>0.07888160859509817</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1310079874069547</v>
+        <v>0.1242209435487226</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>117</v>
@@ -4732,19 +4732,19 @@
         <v>130308</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>108959</v>
+        <v>110027</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>155421</v>
+        <v>154150</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1001101304951359</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08370917503805826</v>
+        <v>0.0845296766152413</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1194036473454889</v>
+        <v>0.1184272275151142</v>
       </c>
     </row>
     <row r="29">
@@ -4761,19 +4761,19 @@
         <v>65740</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>51134</v>
+        <v>49865</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>85584</v>
+        <v>84086</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1174687752140285</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09136945006769699</v>
+        <v>0.08910284319244671</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1529281127084042</v>
+        <v>0.1502513196411456</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>70</v>
@@ -4782,19 +4782,19 @@
         <v>75223</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>57379</v>
+        <v>59173</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>92499</v>
+        <v>93781</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1013781057077447</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07732972264971957</v>
+        <v>0.0797476346066943</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1246609581132091</v>
+        <v>0.1263892997844352</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>127</v>
@@ -4803,19 +4803,19 @@
         <v>140963</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>119861</v>
+        <v>119094</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>166553</v>
+        <v>168668</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.108296240245932</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09208453161386261</v>
+        <v>0.09149519101404843</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1279558768465129</v>
+        <v>0.1295806369694715</v>
       </c>
     </row>
     <row r="30">
@@ -4832,19 +4832,19 @@
         <v>438949</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>417350</v>
+        <v>417026</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>458466</v>
+        <v>459388</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7843456743350707</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7457506751723321</v>
+        <v>0.745172648614903</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8192209495011791</v>
+        <v>0.8208671864055702</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>555</v>
@@ -4853,19 +4853,19 @@
         <v>591423</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>568107</v>
+        <v>568802</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>613761</v>
+        <v>616421</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.797060201745643</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7656380582800484</v>
+        <v>0.7665748932729401</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8271651264602289</v>
+        <v>0.8307501087808188</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>953</v>
@@ -4874,19 +4874,19 @@
         <v>1030372</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>998010</v>
+        <v>998788</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1060154</v>
+        <v>1059863</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7915936292589322</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7667316916042689</v>
+        <v>0.7673293966971375</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.814474550464054</v>
+        <v>0.814250497212908</v>
       </c>
     </row>
     <row r="31">
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4377</v>
+        <v>4235</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01264942295148332</v>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06376079093474005</v>
+        <v>0.06169834030959055</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4794</v>
+        <v>5452</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008228003577441943</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04542978696052855</v>
+        <v>0.05166144065686453</v>
       </c>
     </row>
     <row r="5">
@@ -5283,19 +5283,19 @@
         <v>2499</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6392</v>
+        <v>7341</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03640526129218227</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01048092037610158</v>
+        <v>0.01078164993653273</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09311353514035528</v>
+        <v>0.1069343067460547</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -5304,19 +5304,19 @@
         <v>4806</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1236</v>
+        <v>1219</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12767</v>
+        <v>11856</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1302956784783937</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03351419921435855</v>
+        <v>0.03304860666320857</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3461114104440138</v>
+        <v>0.3213937771254572</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -5325,19 +5325,19 @@
         <v>7305</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2963</v>
+        <v>2998</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16053</v>
+        <v>15597</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06922327292608552</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02807819599427137</v>
+        <v>0.02840384955389062</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1521137501851661</v>
+        <v>0.1477871496505854</v>
       </c>
     </row>
     <row r="6">
@@ -5354,19 +5354,19 @@
         <v>65280</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>60672</v>
+        <v>61037</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67786</v>
+        <v>67810</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9509453157563345</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8838278405573671</v>
+        <v>0.8891403663588096</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9874521011306419</v>
+        <v>0.9878020796183685</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>26</v>
@@ -5375,19 +5375,19 @@
         <v>32082</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24121</v>
+        <v>25032</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35652</v>
+        <v>35669</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8697043215216064</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6538885895559867</v>
+        <v>0.678606222874543</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9664858007856415</v>
+        <v>0.9669513933367915</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>89</v>
@@ -5396,19 +5396,19 @@
         <v>97361</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>89076</v>
+        <v>88588</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>102070</v>
+        <v>102025</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9225487234964725</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8440419321409875</v>
+        <v>0.8394190941790762</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9671712721744996</v>
+        <v>0.9667431590153713</v>
       </c>
     </row>
     <row r="7">
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6029</v>
+        <v>6055</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03628074836460105</v>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.113024638334169</v>
+        <v>0.113516049444892</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6913</v>
+        <v>5866</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02728465557540789</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09745746346005042</v>
+        <v>0.08269498080973084</v>
       </c>
     </row>
     <row r="9">
@@ -5563,19 +5563,19 @@
         <v>5376</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2361</v>
+        <v>2091</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10995</v>
+        <v>10597</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.100782270924382</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04426398564222549</v>
+        <v>0.03920538421201709</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2061238606574743</v>
+        <v>0.1986447709763886</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5638</v>
+        <v>5618</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0717301419486993</v>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.320543428582608</v>
+        <v>0.3194465677654527</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -5605,19 +5605,19 @@
         <v>6638</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2542</v>
+        <v>2832</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12330</v>
+        <v>12363</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09357857034570673</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03584174261369028</v>
+        <v>0.0399211875436133</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.17382920788661</v>
+        <v>0.1742909354012847</v>
       </c>
     </row>
     <row r="10">
@@ -5634,19 +5634,19 @@
         <v>46033</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40083</v>
+        <v>40185</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49755</v>
+        <v>49691</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.862936980711017</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7514003067299149</v>
+        <v>0.7533223503313086</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9327183354817759</v>
+        <v>0.9315149884978566</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -5655,7 +5655,7 @@
         <v>16326</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11950</v>
+        <v>11970</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>17588</v>
@@ -5664,7 +5664,7 @@
         <v>0.9282698580513007</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6794565714173921</v>
+        <v>0.680553432234547</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -5676,19 +5676,19 @@
         <v>62359</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56373</v>
+        <v>56376</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67073</v>
+        <v>66843</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8791367740788854</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7947424980168178</v>
+        <v>0.7947902922369158</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9455957956996416</v>
+        <v>0.9423577724592085</v>
       </c>
     </row>
     <row r="11">
@@ -5780,19 +5780,19 @@
         <v>7505</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3376</v>
+        <v>3485</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14063</v>
+        <v>13912</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06240761789339953</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02806963871350256</v>
+        <v>0.02898062305729519</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1169353003787717</v>
+        <v>0.1156846465940023</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6921</v>
+        <v>6475</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02890344844279069</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1497715178128758</v>
+        <v>0.1401330315354271</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -5822,19 +5822,19 @@
         <v>8841</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4105</v>
+        <v>4084</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16602</v>
+        <v>16283</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05310750278714244</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02465888434246075</v>
+        <v>0.02453589671018306</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09973182500744554</v>
+        <v>0.09781160083224068</v>
       </c>
     </row>
     <row r="13">
@@ -5851,19 +5851,19 @@
         <v>4137</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1572</v>
+        <v>1608</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9338</v>
+        <v>9092</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03439997711440356</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01307418505577001</v>
+        <v>0.01337449549791137</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07764949444047277</v>
+        <v>0.07559917500057524</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -5872,19 +5872,19 @@
         <v>7713</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2958</v>
+        <v>3125</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14676</v>
+        <v>15447</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1669214468621907</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06402126397837465</v>
+        <v>0.06762200074706338</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3175935336002362</v>
+        <v>0.3342867537324635</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -5893,19 +5893,19 @@
         <v>11850</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6364</v>
+        <v>5793</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20730</v>
+        <v>19662</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07118539644920194</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03823137073490234</v>
+        <v>0.03479940085762959</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1245250494870155</v>
+        <v>0.1181091753911264</v>
       </c>
     </row>
     <row r="14">
@@ -5922,19 +5922,19 @@
         <v>108619</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101161</v>
+        <v>101222</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>113854</v>
+        <v>113653</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9031924049921969</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8411762928840202</v>
+        <v>0.8416901338301699</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.946727361131009</v>
+        <v>0.945056062126887</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>30</v>
@@ -5943,19 +5943,19 @@
         <v>37160</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30219</v>
+        <v>29344</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42791</v>
+        <v>42650</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8041751046950186</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6539739008411908</v>
+        <v>0.6350257435584893</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9260244959120282</v>
+        <v>0.922987827195358</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>145</v>
@@ -5964,19 +5964,19 @@
         <v>145779</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>135589</v>
+        <v>135568</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>153132</v>
+        <v>153041</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8757071007636557</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8144979526178091</v>
+        <v>0.8143709361761083</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9198789106402326</v>
+        <v>0.9193281095524992</v>
       </c>
     </row>
     <row r="15">
@@ -6068,19 +6068,19 @@
         <v>13820</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8402</v>
+        <v>8373</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21924</v>
+        <v>21623</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06779117946115955</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04121315680996752</v>
+        <v>0.04107329691499664</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1075474299724476</v>
+        <v>0.1060692770296726</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -6089,19 +6089,19 @@
         <v>7384</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2679</v>
+        <v>2683</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16121</v>
+        <v>15350</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07454873491361923</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02704472132196847</v>
+        <v>0.02708796230587763</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1627587062840459</v>
+        <v>0.1549803722546599</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -6110,19 +6110,19 @@
         <v>21203</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12973</v>
+        <v>13671</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31518</v>
+        <v>32104</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0700008358085742</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04282798775163697</v>
+        <v>0.04513411880220852</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1040518489681431</v>
+        <v>0.1059881018517343</v>
       </c>
     </row>
     <row r="17">
@@ -6139,19 +6139,19 @@
         <v>15558</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9341</v>
+        <v>9058</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23280</v>
+        <v>23994</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07631778985602142</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04582129020375558</v>
+        <v>0.04443294662535812</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1141962124511042</v>
+        <v>0.1177031103136126</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -6160,19 +6160,19 @@
         <v>7370</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2808</v>
+        <v>2471</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15969</v>
+        <v>15901</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07440555491131703</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02834669564082536</v>
+        <v>0.02495150370394579</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1612230781079667</v>
+        <v>0.160539708838478</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -6181,19 +6181,19 @@
         <v>22927</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14621</v>
+        <v>15157</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33225</v>
+        <v>33436</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07569250722045293</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04827099823611259</v>
+        <v>0.0500396698159009</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1096880374064583</v>
+        <v>0.1103864026265615</v>
       </c>
     </row>
     <row r="18">
@@ -6210,19 +6210,19 @@
         <v>174479</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>164219</v>
+        <v>164258</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>182833</v>
+        <v>183794</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.855891030682819</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8055621348840593</v>
+        <v>0.805755328218354</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8968744386270036</v>
+        <v>0.9015852693479224</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>74</v>
@@ -6231,19 +6231,19 @@
         <v>84293</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>74394</v>
+        <v>73817</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>91345</v>
+        <v>90927</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8510457101750637</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7511051401417076</v>
+        <v>0.7452755850085485</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9222469203063034</v>
+        <v>0.9180326366525438</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>258</v>
@@ -6252,19 +6252,19 @@
         <v>258771</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>244847</v>
+        <v>245181</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>269816</v>
+        <v>270120</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8543066569709729</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8083365966109928</v>
+        <v>0.8094393663280273</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8907704100920367</v>
+        <v>0.8917747247638226</v>
       </c>
     </row>
     <row r="19">
@@ -6356,19 +6356,19 @@
         <v>11223</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6017</v>
+        <v>6151</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17788</v>
+        <v>17887</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07727906824782076</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04143200731454818</v>
+        <v>0.04235381445704303</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1224925419991034</v>
+        <v>0.1231720474255068</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -6377,19 +6377,19 @@
         <v>8896</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3754</v>
+        <v>3865</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16193</v>
+        <v>17826</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05575924542444542</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02353129825981974</v>
+        <v>0.02422704064279744</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1014912912033732</v>
+        <v>0.111723986538406</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>20</v>
@@ -6398,19 +6398,19 @@
         <v>20119</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12177</v>
+        <v>13093</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>29932</v>
+        <v>31282</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06601325612249774</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03995330577837328</v>
+        <v>0.04295982169075489</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09821287076724251</v>
+        <v>0.102640724400776</v>
       </c>
     </row>
     <row r="21">
@@ -6427,19 +6427,19 @@
         <v>20209</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13306</v>
+        <v>13371</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29224</v>
+        <v>30455</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1391598551662808</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09162581417488193</v>
+        <v>0.09207629039763308</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2012359588505087</v>
+        <v>0.2097146809611653</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -6448,19 +6448,19 @@
         <v>18764</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11201</v>
+        <v>11234</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>29018</v>
+        <v>29342</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1176072234608407</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07020303204438558</v>
+        <v>0.07041095764259671</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1818720748611519</v>
+        <v>0.1839058563821934</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>37</v>
@@ -6469,19 +6469,19 @@
         <v>38973</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>28113</v>
+        <v>27913</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>51828</v>
+        <v>51786</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1278768673093351</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09224208575735682</v>
+        <v>0.09158811260994594</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1700559823663597</v>
+        <v>0.1699181641723417</v>
       </c>
     </row>
     <row r="22">
@@ -6498,19 +6498,19 @@
         <v>113790</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>103782</v>
+        <v>103638</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>122281</v>
+        <v>122495</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7835610765858984</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7146495182891146</v>
+        <v>0.7136565397134541</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8420313591598035</v>
+        <v>0.8435096686327435</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>117</v>
@@ -6519,19 +6519,19 @@
         <v>131889</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>120763</v>
+        <v>120465</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>141219</v>
+        <v>141774</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8266335311147138</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7568965568334494</v>
+        <v>0.755029341441611</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8851097107754197</v>
+        <v>0.8885895421295703</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>241</v>
@@ -6540,19 +6540,19 @@
         <v>245679</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>230450</v>
+        <v>230273</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>259561</v>
+        <v>259559</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8061098765681672</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7561419689812977</v>
+        <v>0.7555597234534612</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8516585437232144</v>
+        <v>0.8516525146224219</v>
       </c>
     </row>
     <row r="23">
@@ -6653,19 +6653,19 @@
         <v>31876</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>20206</v>
+        <v>20459</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45180</v>
+        <v>47147</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07716510513128187</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04891530878725177</v>
+        <v>0.04952677241528571</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1093737050998497</v>
+        <v>0.1141332915649635</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>24</v>
@@ -6674,19 +6674,19 @@
         <v>31876</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20206</v>
+        <v>20459</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>45180</v>
+        <v>47147</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07716510513128187</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04891530878725177</v>
+        <v>0.04952677241528571</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1093737050998497</v>
+        <v>0.1141332915649635</v>
       </c>
     </row>
     <row r="25">
@@ -6712,19 +6712,19 @@
         <v>31225</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20241</v>
+        <v>20741</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44063</v>
+        <v>45425</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07558969887341452</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04899961363057573</v>
+        <v>0.05021064284043074</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1066681314527071</v>
+        <v>0.1099652077874644</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>25</v>
@@ -6733,19 +6733,19 @@
         <v>31225</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20241</v>
+        <v>20741</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>44063</v>
+        <v>45425</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07558969887341452</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04899961363057573</v>
+        <v>0.05021064284043074</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1066681314527071</v>
+        <v>0.1099652077874644</v>
       </c>
     </row>
     <row r="26">
@@ -6771,19 +6771,19 @@
         <v>349983</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>332767</v>
+        <v>332030</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>365449</v>
+        <v>365564</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8472451959953036</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8055695235605885</v>
+        <v>0.803785557936289</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8846873939930568</v>
+        <v>0.8849643784073923</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>298</v>
@@ -6792,19 +6792,19 @@
         <v>349983</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>332767</v>
+        <v>332030</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>365449</v>
+        <v>365564</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8472451959953036</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8055695235605885</v>
+        <v>0.803785557936289</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8846873939930568</v>
+        <v>0.8849643784073923</v>
       </c>
     </row>
     <row r="27">
@@ -6884,19 +6884,19 @@
         <v>35351</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>25988</v>
+        <v>25834</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>48810</v>
+        <v>46794</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05978244762145465</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04394933254952856</v>
+        <v>0.04368772696513878</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08254343542206581</v>
+        <v>0.07913318305577362</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>37</v>
@@ -6905,19 +6905,19 @@
         <v>49491</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>34860</v>
+        <v>34447</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>67334</v>
+        <v>67858</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06407770405179319</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04513413683634272</v>
+        <v>0.04459939891537696</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08717864424985237</v>
+        <v>0.08785719385517173</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>77</v>
@@ -6926,19 +6926,19 @@
         <v>84842</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>68387</v>
+        <v>67832</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>105346</v>
+        <v>105347</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06221518271200498</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05014874223437732</v>
+        <v>0.04974116107216028</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07725058324318823</v>
+        <v>0.0772513664893531</v>
       </c>
     </row>
     <row r="29">
@@ -6955,19 +6955,19 @@
         <v>47779</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>35316</v>
+        <v>37206</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>60905</v>
+        <v>62121</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08079930942175764</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05972255753210517</v>
+        <v>0.06291920251325643</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1029962195880361</v>
+        <v>0.1050531484238847</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>55</v>
@@ -6976,19 +6976,19 @@
         <v>71140</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>53395</v>
+        <v>54632</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>90354</v>
+        <v>90306</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09210662252575279</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06913137975689844</v>
+        <v>0.07073390344923668</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1169842113131988</v>
+        <v>0.1169221399945407</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>109</v>
@@ -6997,19 +6997,19 @@
         <v>118919</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>96883</v>
+        <v>98029</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>141881</v>
+        <v>140758</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08720351317863564</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07104487242756251</v>
+        <v>0.07188504036039109</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1040420436188948</v>
+        <v>0.1032186133991448</v>
       </c>
     </row>
     <row r="30">
@@ -7026,19 +7026,19 @@
         <v>508198</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>492180</v>
+        <v>491892</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>524267</v>
+        <v>523857</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8594182429567877</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8323304061436091</v>
+        <v>0.8318426324521823</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8865922866703817</v>
+        <v>0.885898730234561</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>558</v>
@@ -7047,19 +7047,19 @@
         <v>651733</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>626107</v>
+        <v>627429</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>673500</v>
+        <v>674743</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.843815673422454</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8106375958919975</v>
+        <v>0.8123493553285261</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8719983063883532</v>
+        <v>0.8736080090599827</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1091</v>
@@ -7068,19 +7068,19 @@
         <v>1159931</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1133414</v>
+        <v>1131322</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1188423</v>
+        <v>1188163</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8505813041093594</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8311359908811838</v>
+        <v>0.8296026500618155</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8714749748756776</v>
+        <v>0.8712843285043534</v>
       </c>
     </row>
     <row r="31">
@@ -7414,19 +7414,19 @@
         <v>3033</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1134</v>
+        <v>1050</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6119</v>
+        <v>6185</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02518805380813597</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0094198640175803</v>
+        <v>0.008722514255121687</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05082229100191114</v>
+        <v>0.05136744486942324</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8450</v>
+        <v>8830</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02318815674326688</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1133304524601023</v>
+        <v>0.1184237525909765</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -7456,19 +7456,19 @@
         <v>4762</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1891</v>
+        <v>1835</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11420</v>
+        <v>11258</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02442322879563839</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009698260128514392</v>
+        <v>0.009410926073406574</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05857790752230094</v>
+        <v>0.05774629402363564</v>
       </c>
     </row>
     <row r="5">
@@ -7485,19 +7485,19 @@
         <v>3748</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1285</v>
+        <v>1339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7751</v>
+        <v>8133</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03113033091307357</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01067549838535486</v>
+        <v>0.01112026499364756</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06437963723574322</v>
+        <v>0.06755023969559712</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -7506,19 +7506,19 @@
         <v>5145</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2450</v>
+        <v>2599</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9410</v>
+        <v>9466</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06900059744039794</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03285639244211377</v>
+        <v>0.03485803150926527</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1262138760547815</v>
+        <v>0.1269662262348664</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -7527,19 +7527,19 @@
         <v>8893</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5136</v>
+        <v>5225</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14819</v>
+        <v>14770</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04561313984301388</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02634288193381184</v>
+        <v>0.0267979246051623</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07600956422725574</v>
+        <v>0.07575969582161707</v>
       </c>
     </row>
     <row r="6">
@@ -7556,19 +7556,19 @@
         <v>113620</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>109216</v>
+        <v>108430</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>116820</v>
+        <v>116755</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9436816152787904</v>
+        <v>0.9436816152787905</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9071009194062023</v>
+        <v>0.9005768662946901</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9702572710148569</v>
+        <v>0.9697165360830055</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>122</v>
@@ -7577,19 +7577,19 @@
         <v>67685</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>61551</v>
+        <v>61998</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>71118</v>
+        <v>71409</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9078112458163353</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8255378089955354</v>
+        <v>0.8315336320191347</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9538421122035284</v>
+        <v>0.9577505286475824</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>281</v>
@@ -7598,19 +7598,19 @@
         <v>181306</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>173744</v>
+        <v>173366</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>186172</v>
+        <v>186085</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9299636313613479</v>
+        <v>0.9299636313613477</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8911758431191521</v>
+        <v>0.8892396163556284</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9549263361546486</v>
+        <v>0.954478778448502</v>
       </c>
     </row>
     <row r="7">
@@ -7702,19 +7702,19 @@
         <v>2840</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6461</v>
+        <v>6581</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02712258020589055</v>
+        <v>0.02712258020589056</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009374621571769366</v>
+        <v>0.009250917403306226</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06170353824933844</v>
+        <v>0.06284921889365661</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -7723,19 +7723,19 @@
         <v>1636</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4738</v>
+        <v>4548</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02953808262658445</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007232889905219047</v>
+        <v>0.00717301602668601</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08554817244249024</v>
+        <v>0.08211878492622461</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -7744,19 +7744,19 @@
         <v>4476</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1870</v>
+        <v>1909</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8294</v>
+        <v>8969</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.02795819602927716</v>
+        <v>0.02795819602927717</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01168201982607418</v>
+        <v>0.01192548885759681</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05180665276543515</v>
+        <v>0.05601828789842776</v>
       </c>
     </row>
     <row r="9">
@@ -7773,19 +7773,19 @@
         <v>8087</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4298</v>
+        <v>4376</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13567</v>
+        <v>13740</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07723210706040422</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04104713451643222</v>
+        <v>0.04178623160050063</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1295590050001338</v>
+        <v>0.1312139975805199</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -7794,19 +7794,19 @@
         <v>3985</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1717</v>
+        <v>1607</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7880</v>
+        <v>7566</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07195531381960768</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03100372521233662</v>
+        <v>0.02901633242350555</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1422833939469736</v>
+        <v>0.1366125548389401</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -7815,19 +7815,19 @@
         <v>12073</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7378</v>
+        <v>7156</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17777</v>
+        <v>17896</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.07540665994390643</v>
+        <v>0.07540665994390644</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04608058471841712</v>
+        <v>0.04469940895286451</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1110357691987117</v>
+        <v>0.1117778481643743</v>
       </c>
     </row>
     <row r="10">
@@ -7844,19 +7844,19 @@
         <v>93787</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>87856</v>
+        <v>87695</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>98305</v>
+        <v>98122</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8956453127337053</v>
+        <v>0.8956453127337051</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8390004989186428</v>
+        <v>0.8374590434786904</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9387881741203743</v>
+        <v>0.9370342878643765</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -7865,19 +7865,19 @@
         <v>49764</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45227</v>
+        <v>45825</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52606</v>
+        <v>52521</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8985066035538078</v>
+        <v>0.898506603553808</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8165984064913878</v>
+        <v>0.827397175358505</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9498165599891921</v>
+        <v>0.9482872086482285</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>218</v>
@@ -7886,19 +7886,19 @@
         <v>143551</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>137091</v>
+        <v>137139</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>148864</v>
+        <v>149271</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8966351440268161</v>
+        <v>0.8966351440268162</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8562863140427245</v>
+        <v>0.8565827945744825</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9298191201943845</v>
+        <v>0.9323611395426338</v>
       </c>
     </row>
     <row r="11">
@@ -7990,19 +7990,19 @@
         <v>5850</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2832</v>
+        <v>3156</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9620</v>
+        <v>10114</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05201267702190698</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02517873870609301</v>
+        <v>0.02806329155827487</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08553070830352337</v>
+        <v>0.08992182985257093</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -8011,19 +8011,19 @@
         <v>3806</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1475</v>
+        <v>1790</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7232</v>
+        <v>7771</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.06565439779253686</v>
+        <v>0.06565439779253683</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02545266378053164</v>
+        <v>0.03088107689295081</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1247482276274731</v>
+        <v>0.1340496453836973</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -8032,19 +8032,19 @@
         <v>9656</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5335</v>
+        <v>5857</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14069</v>
+        <v>14924</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05665248454242294</v>
+        <v>0.05665248454242293</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03130295119000556</v>
+        <v>0.03436320354728528</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08254558182171579</v>
+        <v>0.08756401636882497</v>
       </c>
     </row>
     <row r="13">
@@ -8061,19 +8061,19 @@
         <v>8834</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4723</v>
+        <v>5106</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14501</v>
+        <v>14879</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07854520507710476</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04199529318238606</v>
+        <v>0.04539842731280419</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1289321477526818</v>
+        <v>0.1322920401249737</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -8082,19 +8082,19 @@
         <v>6736</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3347</v>
+        <v>3387</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11126</v>
+        <v>11403</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1161925783175898</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05773749772545363</v>
+        <v>0.0584275222659703</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1919191835604396</v>
+        <v>0.1967014604136817</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -8103,19 +8103,19 @@
         <v>15570</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10128</v>
+        <v>10137</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22183</v>
+        <v>22104</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09134978951523123</v>
+        <v>0.09134978951523121</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05942488731887755</v>
+        <v>0.05947625868092924</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1301482017008192</v>
+        <v>0.1296899756228734</v>
       </c>
     </row>
     <row r="14">
@@ -8132,19 +8132,19 @@
         <v>97787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91728</v>
+        <v>90955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>103311</v>
+        <v>102724</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8694421179009882</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8155699547155438</v>
+        <v>0.8087006897904503</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9185528839938647</v>
+        <v>0.9133352027908331</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>86</v>
@@ -8153,19 +8153,19 @@
         <v>47428</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42339</v>
+        <v>42093</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51302</v>
+        <v>51532</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8181530238898734</v>
+        <v>0.8181530238898733</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7303654822209069</v>
+        <v>0.7261241263851748</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.884966748778963</v>
+        <v>0.8889377955890775</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>226</v>
@@ -8174,19 +8174,19 @@
         <v>145215</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>137620</v>
+        <v>137349</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>152151</v>
+        <v>151771</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.851997725942346</v>
+        <v>0.8519977259423458</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8074338353604985</v>
+        <v>0.8058444343019512</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8926887619657302</v>
+        <v>0.8904608274839132</v>
       </c>
     </row>
     <row r="15">
@@ -8278,19 +8278,19 @@
         <v>26707</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18697</v>
+        <v>19431</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35703</v>
+        <v>35611</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1029745200447005</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07209282066755832</v>
+        <v>0.07492215227949783</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1376634929568948</v>
+        <v>0.1373081889379509</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -8299,19 +8299,19 @@
         <v>8028</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4676</v>
+        <v>4571</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12000</v>
+        <v>12219</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06133998940016634</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0357261855201744</v>
+        <v>0.03492874116719736</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09168601038746231</v>
+        <v>0.09336002146846208</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -8320,19 +8320,19 @@
         <v>34735</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26602</v>
+        <v>26234</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45309</v>
+        <v>44638</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08901074993818581</v>
+        <v>0.08901074993818578</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06817063333924821</v>
+        <v>0.06722743607221074</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1161071062905957</v>
+        <v>0.1143870628510937</v>
       </c>
     </row>
     <row r="17">
@@ -8349,19 +8349,19 @@
         <v>32100</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24239</v>
+        <v>24283</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41914</v>
+        <v>42118</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1237702305544732</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09345766566028518</v>
+        <v>0.0936272999943301</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.161610132936956</v>
+        <v>0.1623948792290167</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -8370,19 +8370,19 @@
         <v>11244</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7501</v>
+        <v>7573</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16046</v>
+        <v>15857</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08590878373396321</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05731059107002876</v>
+        <v>0.05786589320514297</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1226038225488075</v>
+        <v>0.1211545207160713</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>71</v>
@@ -8391,19 +8391,19 @@
         <v>43344</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34279</v>
+        <v>34360</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54085</v>
+        <v>54025</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1110719118484104</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08784335851431939</v>
+        <v>0.08804946299400326</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1385972426473844</v>
+        <v>0.1384416689554941</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>200546</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>189102</v>
+        <v>187726</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>211615</v>
+        <v>210569</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7732552494008262</v>
+        <v>0.7732552494008261</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7291294403608415</v>
+        <v>0.7238249492630606</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.815932448372355</v>
+        <v>0.8118992273994954</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>219</v>
@@ -8441,19 +8441,19 @@
         <v>111608</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>105519</v>
+        <v>105714</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>116324</v>
+        <v>116603</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8527512268658705</v>
+        <v>0.8527512268658703</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8062305084465982</v>
+        <v>0.8077145885279811</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8887848145008397</v>
+        <v>0.8909149365186561</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>501</v>
@@ -8462,19 +8462,19 @@
         <v>312154</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>299796</v>
+        <v>298416</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>323939</v>
+        <v>324548</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.7999173382134038</v>
+        <v>0.799917338213404</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7682490985494829</v>
+        <v>0.7647118694160182</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8301173501611827</v>
+        <v>0.8316781336554916</v>
       </c>
     </row>
     <row r="19">
@@ -8566,19 +8566,19 @@
         <v>10124</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6127</v>
+        <v>6023</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14887</v>
+        <v>15248</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1022104557642496</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06185380639689408</v>
+        <v>0.06080260560363566</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1502920606929749</v>
+        <v>0.153939481830293</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>52</v>
@@ -8587,19 +8587,19 @@
         <v>23546</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17636</v>
+        <v>17795</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30329</v>
+        <v>30540</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1069068006208382</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08007679839568344</v>
+        <v>0.0807981834133657</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1377055599383422</v>
+        <v>0.1386664714310653</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>72</v>
@@ -8608,19 +8608,19 @@
         <v>33670</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>25904</v>
+        <v>27010</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40871</v>
+        <v>41550</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1054498842806875</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0811282525425545</v>
+        <v>0.08459175983788675</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1280040065988964</v>
+        <v>0.1301291859104563</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>12370</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7624</v>
+        <v>7383</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18552</v>
+        <v>18218</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1248774058438099</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07697140717078678</v>
+        <v>0.07453350197325838</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1872907010684977</v>
+        <v>0.1839247823503186</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>71</v>
@@ -8658,19 +8658,19 @@
         <v>32480</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>25732</v>
+        <v>25839</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>40196</v>
+        <v>40009</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1474742795823129</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1168318229320588</v>
+        <v>0.1173214402203129</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1825052688050241</v>
+        <v>0.1816577253458117</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>91</v>
@@ -8679,19 +8679,19 @@
         <v>44850</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>36397</v>
+        <v>36186</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>54962</v>
+        <v>54708</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1404641992770389</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1139899150574172</v>
+        <v>0.1133311795957195</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1721348741455353</v>
+        <v>0.171338090116139</v>
       </c>
     </row>
     <row r="22">
@@ -8708,19 +8708,19 @@
         <v>76560</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69461</v>
+        <v>69380</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82958</v>
+        <v>82753</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7729121383919405</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7012463392087888</v>
+        <v>0.700427342188144</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8374993102646354</v>
+        <v>0.8354306056691834</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>320</v>
@@ -8729,19 +8729,19 @@
         <v>164218</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>155628</v>
+        <v>155044</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>172877</v>
+        <v>172718</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7456189197968488</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7066162645035048</v>
+        <v>0.7039632317323536</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.784934724623522</v>
+        <v>0.7842110779261419</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>426</v>
@@ -8750,19 +8750,19 @@
         <v>240778</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>228692</v>
+        <v>229294</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>251613</v>
+        <v>251435</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7540859164422737</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.716232334392466</v>
+        <v>0.7181206074454655</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7880201414434765</v>
+        <v>0.7874620928983204</v>
       </c>
     </row>
     <row r="23">
@@ -8857,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2364</v>
+        <v>2348</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3603506700100866</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7216154690530149</v>
+        <v>0.7167320982215601</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>68</v>
@@ -8875,19 +8875,19 @@
         <v>40073</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>30662</v>
+        <v>30836</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>50651</v>
+        <v>50250</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.115890130216583</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08867355244023961</v>
+        <v>0.08917823510490493</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1464821076339493</v>
+        <v>0.1453213531319074</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>70</v>
@@ -8896,19 +8896,19 @@
         <v>41253</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>32276</v>
+        <v>32723</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>51090</v>
+        <v>51422</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1181845590104612</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09246608909149009</v>
+        <v>0.09374727192210651</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1463650276984566</v>
+        <v>0.147316391891716</v>
       </c>
     </row>
     <row r="25">
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2226</v>
+        <v>1932</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1575123810807746</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6794728609246499</v>
+        <v>0.5898691700626242</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>93</v>
@@ -8946,19 +8946,19 @@
         <v>50823</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>41615</v>
+        <v>41220</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61157</v>
+        <v>61741</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1469803913036654</v>
+        <v>0.1469803913036655</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1203504160651207</v>
+        <v>0.1192080443926434</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1768642152582159</v>
+        <v>0.1785554637279972</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>94</v>
@@ -8967,19 +8967,19 @@
         <v>51339</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>42352</v>
+        <v>42150</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>62227</v>
+        <v>62265</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1470792412064835</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1213312187307875</v>
+        <v>0.1207524926643286</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1782697114483725</v>
+        <v>0.1783802293924601</v>
       </c>
     </row>
     <row r="26">
@@ -8996,19 +8996,19 @@
         <v>1579</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4821369489091388</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1380990166436294</v>
+        <v>0.1438128293148192</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.841910342840434</v>
+        <v>0.8423769689009568</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>475</v>
@@ -9017,19 +9017,19 @@
         <v>254887</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>241497</v>
+        <v>241836</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>266702</v>
+        <v>267724</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7371294784797515</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6984054804341029</v>
+        <v>0.6993867327023154</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7712982788593815</v>
+        <v>0.7742541625470725</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>478</v>
@@ -9038,19 +9038,19 @@
         <v>256466</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>244277</v>
+        <v>242304</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>268866</v>
+        <v>268649</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7347361997830554</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6998153922500002</v>
+        <v>0.6941632398949491</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7702590753208638</v>
+        <v>0.7696383209264377</v>
       </c>
     </row>
     <row r="27">
@@ -9142,19 +9142,19 @@
         <v>49734</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>40144</v>
+        <v>39586</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>62180</v>
+        <v>61675</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07112324797604171</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05740853837447328</v>
+        <v>0.05661065830646701</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08892179760412547</v>
+        <v>0.08819982981540435</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>148</v>
@@ -9163,19 +9163,19 @@
         <v>78817</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>67090</v>
+        <v>66232</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>91669</v>
+        <v>92907</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.08907726921939373</v>
+        <v>0.08907726921939374</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07582329487025527</v>
+        <v>0.07485301269132452</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1036016287318141</v>
+        <v>0.1050006805242438</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>232</v>
@@ -9184,19 +9184,19 @@
         <v>128552</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>113469</v>
+        <v>112709</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>145702</v>
+        <v>147561</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.08115177126839973</v>
+        <v>0.08115177126839974</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0716302519613622</v>
+        <v>0.07115060393396755</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09197805399218627</v>
+        <v>0.09315190135146177</v>
       </c>
     </row>
     <row r="29">
@@ -9213,19 +9213,19 @@
         <v>65655</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>53548</v>
+        <v>54396</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>77826</v>
+        <v>79520</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.09389123908729972</v>
+        <v>0.09389123908729971</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07657656327104737</v>
+        <v>0.07779036045943946</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1112964551215316</v>
+        <v>0.1137179431511072</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>216</v>
@@ -9234,19 +9234,19 @@
         <v>110413</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>97117</v>
+        <v>96271</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>124555</v>
+        <v>124446</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1247856255015392</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1097586259225103</v>
+        <v>0.108802829801085</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.140768063755025</v>
+        <v>0.1406448852856025</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>316</v>
@@ -9255,19 +9255,19 @@
         <v>176068</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>159505</v>
+        <v>156777</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>196481</v>
+        <v>196401</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1111478229778324</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1006915977449891</v>
+        <v>0.09896985502613265</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1240339300959048</v>
+        <v>0.1239833843587828</v>
       </c>
     </row>
     <row r="30">
@@ -9284,19 +9284,19 @@
         <v>583880</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>568230</v>
+        <v>566909</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>599393</v>
+        <v>600350</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8349855129366588</v>
+        <v>0.8349855129366585</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8126045960470646</v>
+        <v>0.8107153750669917</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8571697542639676</v>
+        <v>0.8585375617471016</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1310</v>
@@ -9305,19 +9305,19 @@
         <v>695591</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>678683</v>
+        <v>678083</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>713526</v>
+        <v>713555</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7861371052790671</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7670280774411077</v>
+        <v>0.7663501926520041</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8064068103894365</v>
+        <v>0.8064403110210476</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2130</v>
@@ -9326,19 +9326,19 @@
         <v>1279471</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1253930</v>
+        <v>1254308</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1300686</v>
+        <v>1304279</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8077004057537679</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7915767817308175</v>
+        <v>0.791815640229111</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8210926728012545</v>
+        <v>0.8233613602575786</v>
       </c>
     </row>
     <row r="31">
